--- a/biology/Botanique/Letonniemi/Letonniemi.xlsx
+++ b/biology/Botanique/Letonniemi/Letonniemi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Letonniemi est une péninsule de la baie de Botnie située dans le quartier de Taskila à Oulu en Finlande[1] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Letonniemi est une péninsule de la baie de Botnie située dans le quartier de Taskila à Oulu en Finlande .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Letonniemi est une réserve naturelle  Natura 2000 située sur la rive orientale de la baie Kuivasmeri.
 La péninsule actuelle Letonniemi était auparavant une île appelée Piispanletto et la zone est connue sous les deux noms.
@@ -549,7 +563,9 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le passé, la zone a été utilisée comme pâturage pour les animaux, mais avec l'arrêt du pâturage, la végétation a envahi la région, et le saule, le roseau commun et l'aulne blanc poussent maintenant dans les prairies côtières. 
 La région est également riche en fougères et en cornouillers.
@@ -583,7 +599,9 @@
           <t>Vues de Lettoniemi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Zone de feux de camp.
